--- a/Test data/TC04_ReserveVaccine.xlsx
+++ b/Test data/TC04_ReserveVaccine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D994E12C-A2A0-44B3-9471-C78EB6F48310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A92AD5-64FA-4DB4-BAF1-BFD43E078B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -581,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -608,7 +608,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -689,7 +689,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -718,7 +718,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>

--- a/Test data/TC04_ReserveVaccine.xlsx
+++ b/Test data/TC04_ReserveVaccine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A92AD5-64FA-4DB4-BAF1-BFD43E078B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952215A7-DAB5-4509-90FF-4D9646EBE016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>TDID</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>กรุณาคลิกยืนยันข้อมูล</t>
@@ -525,7 +522,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -549,55 +546,55 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -605,26 +602,26 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -632,26 +629,26 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -659,26 +656,26 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -686,28 +683,28 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -715,28 +712,28 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -744,28 +741,28 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -773,28 +770,28 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>

--- a/Test data/TC04_ReserveVaccine.xlsx
+++ b/Test data/TC04_ReserveVaccine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952215A7-DAB5-4509-90FF-4D9646EBE016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEA5E61-DEEB-45B3-8946-1AE73A76F211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>TDID</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>สั่งจองวัคซีนสำเร็จ</t>
+  </si>
+  <si>
+    <t>Revised</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -519,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -535,10 +541,12 @@
     <col min="9" max="9" width="17.81640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.7265625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.26953125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="12.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:13" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -570,10 +578,16 @@
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -586,7 +600,7 @@
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -599,8 +613,10 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -613,7 +629,7 @@
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -626,8 +642,10 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -640,7 +658,7 @@
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -653,8 +671,10 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -667,7 +687,7 @@
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -680,8 +700,10 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -694,7 +716,7 @@
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -709,8 +731,10 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -723,7 +747,7 @@
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -738,8 +762,10 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -752,7 +778,7 @@
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -767,8 +793,10 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -781,7 +809,7 @@
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -796,6 +824,8 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
